--- a/Technology/Hardware/Broadcom.xlsx
+++ b/Technology/Hardware/Broadcom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526E190-2397-E648-87AA-7A9B205CFC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF54464-3D9D-1540-B17D-EBC2AAFEDC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2322,13 +2322,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>648.49990000000003</v>
+    <v>684.95</v>
     <v>415.06819999999999</v>
-    <v>1.1200000000000001</v>
-    <v>-0.12</v>
-    <v>-1.896E-4</v>
-    <v>0.1</v>
-    <v>1.5800000000000002E-4</v>
+    <v>1.1114999999999999</v>
+    <v>-3.88</v>
+    <v>-5.6870000000000002E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Broadcom Inc. is a technology company. The Company designs, develops and supplies a range of semiconductor and infrastructure software solutions. The Company operates through two segments: semiconductor solutions and infrastructure software. Its semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. It provides semiconductor solutions for managing the movement of data in data center, telecom, enterprise and embedded networking applications. It also provides a variety of radio frequency (RF) semiconductor devices, wireless connectivity solutions and custom touch controllers for the wireless market. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. The Company's mainframe software provides DevOps, AIOps, Security and Data Management Systems solutions.</v>
     <v>20000</v>
@@ -2336,25 +2336,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1320 Ridder Park Drive, SAN JOSE, CA, 95131 US</v>
-    <v>633.79999999999995</v>
+    <v>684.68</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.990989548438</v>
+    <v>45068.897558564066</v>
     <v>0</v>
-    <v>621.99</v>
-    <v>263871000000</v>
+    <v>674.12</v>
+    <v>282828462532</v>
     <v>Broadcom Inc.</v>
     <v>Broadcom Inc.</v>
-    <v>630.6</v>
-    <v>21.2834</v>
-    <v>633.02</v>
-    <v>632.9</v>
-    <v>633</v>
+    <v>681.4</v>
+    <v>22.938600000000001</v>
+    <v>682.25</v>
+    <v>678.37</v>
+    <v>678.37</v>
     <v>416923600</v>
     <v>AVGO</v>
     <v>Broadcom Inc. (XNAS:AVGO)</v>
-    <v>1480715</v>
-    <v>2159295</v>
+    <v>1779625</v>
+    <v>1836182</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2519,9 +2519,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2941,11 +2941,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T99" sqref="T99"/>
+      <selection pane="bottomRight" activeCell="V100" sqref="V100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4042,15 +4042,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y101/Q3</f>
-        <v>7.9472035659428366</v>
+        <v>8.518159881095082</v>
       </c>
       <c r="Y16" s="30">
         <f>Y101/Q28</f>
-        <v>22.955284906481079</v>
+        <v>24.604476949282297</v>
       </c>
       <c r="Z16" s="31">
         <f>Y101/Q106</f>
-        <v>16.176495831289849</v>
+        <v>17.338674750613045</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="Y95" s="57" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.1200000000000001</v>
+        <v>1.1114999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="Y97" s="36">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.9166000000000009E-2</v>
+        <v>8.8800075000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="Y100" s="34">
         <f>Y99/Y103</f>
-        <v>0.13024661652152703</v>
+        <v>0.1225866338023754</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="Y101" s="49" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>263871000000</v>
+        <v>282828462532</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Y102" s="34">
         <f>Y101/Y103</f>
-        <v>0.86975338347847297</v>
+        <v>0.87741336619762456</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="Y103" s="38">
         <f>Y99+Y101</f>
-        <v>303386000000</v>
+        <v>322343462532</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="Y105" s="26">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.2845436297187158E-2</v>
+        <v>8.2896089858754421E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9118,7 +9118,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="42">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>376577798543.95654</v>
+        <v>376248328855.24445</v>
       </c>
       <c r="W107" s="43" t="s">
         <v>148</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="V108" s="42">
         <f>V107+V106</f>
-        <v>397829805428.45355</v>
+        <v>397500335739.74146</v>
       </c>
       <c r="W108" s="43" t="s">
         <v>144</v>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="Y108" s="47">
         <f>Y105</f>
-        <v>8.2845436297187158E-2</v>
+        <v>8.2896089858754421E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="S110" s="49">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>328282297159.18878</v>
+        <v>327991511695.8363</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="S113" s="49">
         <f>S110+S111-S112</f>
-        <v>301183297159.18878</v>
+        <v>300892511695.8363</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="S115" s="52">
         <f>S113/S114</f>
-        <v>707.98149256417355</v>
+        <v>707.29795291140374</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="S116" s="56" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>632.9</v>
+        <v>678.37</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="S117" s="54">
         <f>S115/S116-1</f>
-        <v>0.11863089360747914</v>
+        <v>4.2643325782985242E-2</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Broadcom.xlsx
+++ b/Technology/Hardware/Broadcom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF54464-3D9D-1540-B17D-EBC2AAFEDC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F2672-796A-2C42-9362-3A687F59BF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2322,13 +2322,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>684.95</v>
+    <v>921.7799</v>
     <v>415.06819999999999</v>
-    <v>1.1114999999999999</v>
-    <v>-3.88</v>
-    <v>-5.6870000000000002E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.0956999999999999</v>
+    <v>-5.23</v>
+    <v>-6.1700000000000001E-3</v>
     <v>USD</v>
     <v>Broadcom Inc. is a technology company. The Company designs, develops and supplies a range of semiconductor and infrastructure software solutions. The Company operates through two segments: semiconductor solutions and infrastructure software. Its semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. It provides semiconductor solutions for managing the movement of data in data center, telecom, enterprise and embedded networking applications. It also provides a variety of radio frequency (RF) semiconductor devices, wireless connectivity solutions and custom touch controllers for the wireless market. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. The Company's mainframe software provides DevOps, AIOps, Security and Data Management Systems solutions.</v>
     <v>20000</v>
@@ -2336,25 +2334,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1320 Ridder Park Drive, SAN JOSE, CA, 95131 US</v>
-    <v>684.68</v>
+    <v>848.91</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45068.897558564066</v>
+    <v>45099.999994166406</v>
     <v>0</v>
-    <v>674.12</v>
-    <v>282828462532</v>
+    <v>835.31</v>
+    <v>347658561522</v>
     <v>Broadcom Inc.</v>
     <v>Broadcom Inc.</v>
-    <v>681.4</v>
-    <v>22.938600000000001</v>
-    <v>682.25</v>
-    <v>678.37</v>
-    <v>678.37</v>
-    <v>416923600</v>
+    <v>845.09</v>
+    <v>26.356400000000001</v>
+    <v>847.66</v>
+    <v>842.43</v>
+    <v>412685400</v>
     <v>AVGO</v>
     <v>Broadcom Inc. (XNAS:AVGO)</v>
-    <v>1779625</v>
-    <v>1836182</v>
+    <v>124</v>
+    <v>4273210</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2386,8 +2383,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2408,7 +2403,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2425,7 +2419,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2436,16 +2430,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2511,19 +2502,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2568,9 +2553,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2578,9 +2560,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2942,10 +2921,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V100" sqref="V100"/>
+      <selection pane="bottomRight" activeCell="Q119" sqref="Q119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4042,15 +4021,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y101/Q3</f>
-        <v>8.518159881095082</v>
+        <v>10.470697271993494</v>
       </c>
       <c r="Y16" s="30">
         <f>Y101/Q28</f>
-        <v>24.604476949282297</v>
+        <v>30.244328971030882</v>
       </c>
       <c r="Z16" s="31">
         <f>Y101/Q106</f>
-        <v>17.338674750613045</v>
+        <v>21.31305551262874</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8396,7 +8375,7 @@
       </c>
       <c r="Y95" s="57" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.1114999999999999</v>
+        <v>1.0956999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8515,7 +8494,7 @@
       </c>
       <c r="Y97" s="36">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.8800075000000006E-2</v>
+        <v>8.8119885000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8692,7 +8671,7 @@
       </c>
       <c r="Y100" s="34">
         <f>Y99/Y103</f>
-        <v>0.1225866338023754</v>
+        <v>0.10206017126960948</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8752,7 +8731,7 @@
       </c>
       <c r="Y101" s="49" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>282828462532</v>
+        <v>347658561522</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8812,7 +8791,7 @@
       </c>
       <c r="Y102" s="34">
         <f>Y101/Y103</f>
-        <v>0.87741336619762456</v>
+        <v>0.89793982873039058</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8872,7 +8851,7 @@
       </c>
       <c r="Y103" s="38">
         <f>Y99+Y101</f>
-        <v>322343462532</v>
+        <v>387173561522</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9008,7 +8987,7 @@
       </c>
       <c r="Y105" s="26">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.2896089858754421E-2</v>
+        <v>8.3273910244024932E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9118,7 +9097,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="42">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>376248328855.24445</v>
+        <v>373808913206.45416</v>
       </c>
       <c r="W107" s="43" t="s">
         <v>148</v>
@@ -9149,7 +9128,7 @@
       </c>
       <c r="V108" s="42">
         <f>V107+V106</f>
-        <v>397500335739.74146</v>
+        <v>395060920090.95117</v>
       </c>
       <c r="W108" s="43" t="s">
         <v>144</v>
@@ -9159,7 +9138,7 @@
       </c>
       <c r="Y108" s="47">
         <f>Y105</f>
-        <v>8.2896089858754421E-2</v>
+        <v>8.3273910244024932E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9174,7 +9153,7 @@
       </c>
       <c r="S110" s="49">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>327991511695.8363</v>
+        <v>325838537423.57544</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9201,7 +9180,7 @@
       </c>
       <c r="S113" s="49">
         <f>S110+S111-S112</f>
-        <v>300892511695.8363</v>
+        <v>298739537423.57544</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9219,7 +9198,7 @@
       </c>
       <c r="S115" s="52">
         <f>S113/S114</f>
-        <v>707.29795291140374</v>
+        <v>702.23702837440374</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9228,7 +9207,7 @@
       </c>
       <c r="S116" s="56" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>678.37</v>
+        <v>842.43</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9237,7 +9216,7 @@
       </c>
       <c r="S117" s="54">
         <f>S115/S116-1</f>
-        <v>4.2643325782985242E-2</v>
+        <v>-0.1664149800287219</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9246,7 +9225,7 @@
       </c>
       <c r="S118" s="55" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Hardware/Broadcom.xlsx
+++ b/Technology/Hardware/Broadcom.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F2672-796A-2C42-9362-3A687F59BF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A4B127-8F55-A24E-8E87-DFC1D42D66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,22 +855,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -852,47 +869,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,98 +916,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,7 +1057,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>AVGO</a:t>
+              <a:t>Broadcom</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1116,9 +1097,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.3584158415841584E-2"/>
-          <c:y val="0.11771692657181285"/>
+          <c:y val="0.17500423219942227"/>
           <c:w val="0.85229042904290442"/>
-          <c:h val="0.71440835472815067"/>
+          <c:h val="0.63690196634088014"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1350,11 +1331,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1394,7 +1375,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$Q$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$Q$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2173,8 +2154,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2200,6 +2181,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0410000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2324,9 +2369,11 @@
     <v>Powered by Refinitiv</v>
     <v>921.7799</v>
     <v>415.06819999999999</v>
-    <v>1.0956999999999999</v>
-    <v>-5.23</v>
-    <v>-6.1700000000000001E-3</v>
+    <v>1.1225000000000001</v>
+    <v>-1.25</v>
+    <v>-1.474E-3</v>
+    <v>-0.25</v>
+    <v>-2.9520000000000002E-4</v>
     <v>USD</v>
     <v>Broadcom Inc. is a technology company. The Company designs, develops and supplies a range of semiconductor and infrastructure software solutions. The Company operates through two segments: semiconductor solutions and infrastructure software. Its semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. It provides semiconductor solutions for managing the movement of data in data center, telecom, enterprise and embedded networking applications. It also provides a variety of radio frequency (RF) semiconductor devices, wireless connectivity solutions and custom touch controllers for the wireless market. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. The Company's mainframe software provides DevOps, AIOps, Security and Data Management Systems solutions.</v>
     <v>20000</v>
@@ -2334,24 +2381,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1320 Ridder Park Drive, SAN JOSE, CA, 95131 US</v>
-    <v>848.91</v>
+    <v>857.99</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999994166406</v>
+    <v>45114.998424490623</v>
     <v>0</v>
-    <v>835.31</v>
-    <v>347658561522</v>
+    <v>844.66</v>
+    <v>349441400000</v>
     <v>Broadcom Inc.</v>
     <v>Broadcom Inc.</v>
-    <v>845.09</v>
-    <v>26.356400000000001</v>
-    <v>847.66</v>
-    <v>842.43</v>
+    <v>850.43</v>
+    <v>26.5306</v>
+    <v>848</v>
+    <v>846.75</v>
+    <v>846.5</v>
     <v>412685400</v>
     <v>AVGO</v>
     <v>Broadcom Inc. (XNAS:AVGO)</v>
-    <v>124</v>
-    <v>4273210</v>
+    <v>1940866</v>
+    <v>3499416</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2383,6 +2431,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2403,6 +2453,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2419,7 +2470,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2430,13 +2481,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2502,13 +2556,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2553,6 +2613,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2560,6 +2623,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2921,10 +2987,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q119" sqref="Q119"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2986,19 +3052,19 @@
       <c r="Q1" s="8">
         <v>2022</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2023</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="23">
         <v>2024</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="23">
         <v>2025</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="23">
         <v>2026</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3007,61 +3073,61 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3122,37 +3188,37 @@
       <c r="Q3" s="1">
         <v>33203000000</v>
       </c>
-      <c r="R3" s="28">
-        <v>35486000000</v>
-      </c>
-      <c r="S3" s="28">
-        <v>36958000000</v>
-      </c>
-      <c r="T3" s="28">
-        <v>39168000000</v>
-      </c>
-      <c r="U3" s="28">
-        <v>41115000000</v>
-      </c>
-      <c r="V3" s="28">
-        <v>43250000000</v>
+      <c r="R3" s="24">
+        <v>35767000000</v>
+      </c>
+      <c r="S3" s="24">
+        <v>37961000000</v>
+      </c>
+      <c r="T3" s="24">
+        <v>40238000000</v>
+      </c>
+      <c r="U3" s="24">
+        <v>43141000000</v>
+      </c>
+      <c r="V3" s="24">
+        <v>45101000000</v>
       </c>
       <c r="W3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3217,23 +3283,23 @@
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8758847092130315E-2</v>
+        <v>7.7221937776706939E-2</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>4.1481147494786708E-2</v>
+        <v>6.13414600050326E-2</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>5.9797608095676136E-2</v>
+        <v>5.9982613735149126E-2</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>4.970894607843146E-2</v>
+        <v>7.21457328893087E-2</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>5.1927520369694724E-2</v>
+        <v>4.5432419276326463E-2</v>
       </c>
       <c r="W4" s="17">
         <f>(Q4+P4+O4)/3</f>
@@ -3248,7 +3314,7 @@
         <v>0.68960511635454347</v>
       </c>
       <c r="Z4" s="17">
-        <f>(Q105+P105+O105)/3</f>
+        <f>(Q106+P106+O106)/3</f>
         <v>0.20830022280803587</v>
       </c>
     </row>
@@ -3358,16 +3424,16 @@
         <v>22095000000</v>
       </c>
       <c r="W6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="Z6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3435,7 +3501,7 @@
         <v>0.34620000000000001</v>
       </c>
       <c r="Z7" s="20">
-        <f>Q106/Q3</f>
+        <f>Q107/Q3</f>
         <v>0.49128090835165494</v>
       </c>
     </row>
@@ -3494,7 +3560,7 @@
     </row>
     <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3561,16 +3627,16 @@
         <v>0.14814926362075717</v>
       </c>
       <c r="W9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Z9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3617,13 +3683,13 @@
         <v>1709000000</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="17">
         <f>Q9</f>
@@ -3647,52 +3713,52 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -3739,7 +3805,7 @@
         <v>1709000000</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P12" s="1">
         <v>1347000000</v>
@@ -3748,21 +3814,21 @@
         <v>1382000000</v>
       </c>
       <c r="W12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="Z12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3951,16 +4017,16 @@
         <v>7870000000</v>
       </c>
       <c r="W15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4015,24 +4081,24 @@
       <c r="Q16" s="1">
         <v>18978000000</v>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="25">
         <f>(Q35+P35+O35+N35+M35)/5</f>
         <v>1.1400745487170974E-3</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="57">
         <f>Y101/Q3</f>
-        <v>10.470697271993494</v>
-      </c>
-      <c r="Y16" s="30">
+        <v>10.524392374183055</v>
+      </c>
+      <c r="Y16" s="57">
         <f>Y101/Q28</f>
-        <v>30.244328971030882</v>
-      </c>
-      <c r="Z16" s="31">
-        <f>Y101/Q106</f>
-        <v>21.31305551262874</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+        <v>30.399425837320575</v>
+      </c>
+      <c r="Z16" s="59">
+        <f>Y101/Q107</f>
+        <v>21.422351642962237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4085,7 +4151,7 @@
         <v>1737000000</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4138,10 +4204,19 @@
         <v>4984000000</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4193,14 +4268,41 @@
       <c r="Q19" s="10">
         <v>19155000000</v>
       </c>
-      <c r="W19" s="32">
+      <c r="R19" s="67">
+        <v>22741000000</v>
+      </c>
+      <c r="S19" s="67">
+        <v>24095000000</v>
+      </c>
+      <c r="T19" s="67">
+        <v>26358000000</v>
+      </c>
+      <c r="U19" s="67">
+        <v>27778000000</v>
+      </c>
+      <c r="V19" s="67">
+        <v>29088000000</v>
+      </c>
+      <c r="W19" s="26">
         <f>Q40-Q56-Q61</f>
         <v>-27099000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="57">
+        <f>Y101/R3</f>
+        <v>9.7699387703749263</v>
+      </c>
+      <c r="Y19" s="58">
+        <f>S116/R31</f>
+        <v>19.14424598688673</v>
+      </c>
+      <c r="Z19" s="59">
+        <f>Y101/R106</f>
+        <v>18.211455076089223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4216,7 +4318,7 @@
         <v>1.9800995024875623</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:Q20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:V20" si="3">(F19/E19)-1</f>
         <v>0.20534223706176968</v>
       </c>
       <c r="G20" s="15">
@@ -4263,8 +4365,28 @@
         <f t="shared" si="3"/>
         <v>0.30385950581988963</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.18720960584703739</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="3"/>
+        <v>5.9540037817158442E-2</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.391990039427256E-2</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="3"/>
+        <v>5.3873586766826076E-2</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="3"/>
+        <v>4.7159622723018213E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4316,8 +4438,34 @@
       <c r="Q21" s="2">
         <v>0.57689999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R21" s="53">
+        <f>R19/R3</f>
+        <v>0.63580954511141552</v>
+      </c>
+      <c r="S21" s="53">
+        <f t="shared" ref="S21:V21" si="4">S19/S3</f>
+        <v>0.63473038118068548</v>
+      </c>
+      <c r="T21" s="53">
+        <f t="shared" si="4"/>
+        <v>0.65505243799393609</v>
+      </c>
+      <c r="U21" s="53">
+        <f t="shared" si="4"/>
+        <v>0.6438886442131615</v>
+      </c>
+      <c r="V21" s="53">
+        <f t="shared" si="4"/>
+        <v>0.64495244007893393</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4369,8 +4517,16 @@
       <c r="Q22" s="10">
         <v>14225000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y22" s="60">
+        <f>(-1*Q98)/Y101</f>
+        <v>2.0123545750446285E-2</v>
+      </c>
+      <c r="Z22" s="61">
+        <f>Q107/Y101</f>
+        <v>4.6680215910307139E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4423,7 +4579,7 @@
         <v>0.4284</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4476,7 +4632,7 @@
         <v>-1791000000</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4529,7 +4685,7 @@
         <v>12434000000</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4582,7 +4738,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4635,7 +4791,7 @@
         <v>939000000</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4687,10 +4843,25 @@
       <c r="Q28" s="11">
         <v>11495000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="54">
+        <v>18254000000</v>
+      </c>
+      <c r="S28" s="54">
+        <v>19246000000</v>
+      </c>
+      <c r="T28" s="54">
+        <v>20756000000</v>
+      </c>
+      <c r="U28" s="54">
+        <v>21396000000</v>
+      </c>
+      <c r="V28" s="54">
+        <v>22518000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4706,55 +4877,75 @@
         <v>-10.431818181818182</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Q29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="5">(F28/E28)-1</f>
         <v>0.33012048192771082</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9927536231884035E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.9538188277087087E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.52355072463768115</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1863117870722437</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.2749266862170088</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.972972972972973</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2452718676122929</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.77779590504935148</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6637298091042592E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2756756756756755</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70650237529691218</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.58799478033927799</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.4344253314342117E-2</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.8457861373791848E-2</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="5"/>
+        <v>3.0834457506263346E-2</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.2439708356702086E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4806,8 +4997,28 @@
       <c r="Q30" s="2">
         <v>0.34620000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R30" s="55">
+        <f>R28/R3</f>
+        <v>0.51035871054323823</v>
+      </c>
+      <c r="S30" s="55">
+        <f t="shared" ref="S30:V30" si="6">S28/S3</f>
+        <v>0.5069940201786044</v>
+      </c>
+      <c r="T30" s="55">
+        <f t="shared" si="6"/>
+        <v>0.51583080670013415</v>
+      </c>
+      <c r="U30" s="55">
+        <f t="shared" si="6"/>
+        <v>0.49595512389606178</v>
+      </c>
+      <c r="V30" s="55">
+        <f t="shared" si="6"/>
+        <v>0.49927939513536285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4859,8 +5070,23 @@
       <c r="Q31" s="12">
         <v>28.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R31" s="56">
+        <v>44.23</v>
+      </c>
+      <c r="S31" s="56">
+        <v>47.07</v>
+      </c>
+      <c r="T31" s="56">
+        <v>50.3</v>
+      </c>
+      <c r="U31" s="56">
+        <v>51.85</v>
+      </c>
+      <c r="V31" s="56">
+        <v>54.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5021,7 +5247,7 @@
     </row>
     <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5029,59 +5255,59 @@
         <v>2.336448598130841E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:Q35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Q35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12328767123287671</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.9365079365079361E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9523809523809521E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2434456928838954E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.36298932384341637</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.921671018276762E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3752969121140142E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7842227378190254E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7732696897374704E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9002375296912115E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3986013986013986E-2</v>
       </c>
     </row>
@@ -5090,52 +5316,52 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -5143,52 +5369,52 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5249,52 +5475,52 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>14000000</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5779,52 +6005,52 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5832,52 +6058,52 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1">
         <v>169000000</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5991,52 +6217,52 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6183,7 +6409,7 @@
         <v>117000000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1">
         <v>2787000000</v>
@@ -6203,16 +6429,16 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1">
         <v>10000000</v>
@@ -6230,7 +6456,7 @@
         <v>79000000</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1">
         <v>123000000</v>
@@ -6248,7 +6474,7 @@
         <v>541000000</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6256,16 +6482,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1">
         <v>10000000</v>
@@ -6277,16 +6503,16 @@
         <v>11000000</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1">
         <v>164000000</v>
@@ -6301,7 +6527,7 @@
         <v>2619000000</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6424,16 +6650,16 @@
         <v>230000000</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1">
         <v>5463000000</v>
@@ -6468,43 +6694,43 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1">
         <v>823000000</v>
@@ -6513,7 +6739,7 @@
         <v>566000000</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6521,31 +6747,31 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>10287000000</v>
@@ -6560,13 +6786,13 @@
         <v>1481000000</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6680,52 +6906,52 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6786,22 +7012,22 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1">
         <v>1587000000</v>
@@ -6822,16 +7048,16 @@
         <v>23285000000</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6875,10 +7101,10 @@
         <v>3487000000</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P69" s="1">
         <v>748000000</v>
@@ -6963,22 +7189,22 @@
         <v>1479000000</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N71" s="1">
         <v>25081000000</v>
@@ -7104,52 +7330,52 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -7157,52 +7383,52 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7316,19 +7542,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1">
         <v>13000000</v>
@@ -7361,7 +7587,7 @@
         <v>-809000000</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7419,70 +7645,70 @@
     </row>
     <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:Q80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:Q80" si="8">B79/B3</f>
         <v>7.8585461689587421E-3</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.828722778104767E-3</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0862533692722376E-3</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1944577161968466E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6267123287671232E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2419627749576988E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8182244085265868E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.399765533411489E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.1283987915407857E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2222726241778178E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.8854566385264775E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.6694251449307433E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.271935699933021E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2076502732240441E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6170526759630154E-2</v>
       </c>
     </row>
@@ -7550,7 +7776,7 @@
         <v>38000000</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <v>-96000000</v>
@@ -7612,7 +7838,7 @@
         <v>-5000000</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1">
         <v>-55000000</v>
@@ -7644,10 +7870,10 @@
       <c r="Q83" s="1">
         <v>-627000000</v>
       </c>
-      <c r="X83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y83" s="62"/>
+      <c r="X83" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y83" s="65"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7701,10 +7927,10 @@
       <c r="Q84" s="1">
         <v>-79000000</v>
       </c>
-      <c r="X84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y84" s="64"/>
+      <c r="X84" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y84" s="66"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7756,12 +7982,12 @@
         <v>-286000000</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y85" s="24">
+        <v>91</v>
+      </c>
+      <c r="X85" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y85" s="31">
         <f>Q17</f>
         <v>1737000000</v>
       </c>
@@ -7816,12 +8042,12 @@
         <v>219000000</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y86" s="24">
+        <v>91</v>
+      </c>
+      <c r="X86" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y86" s="31">
         <f>Q56</f>
         <v>440000000</v>
       </c>
@@ -7878,10 +8104,10 @@
       <c r="Q87" s="10">
         <v>16736000000</v>
       </c>
-      <c r="X87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y87" s="24">
+      <c r="X87" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y87" s="31">
         <f>Q61</f>
         <v>39075000000</v>
       </c>
@@ -7938,86 +8164,86 @@
       <c r="Q88" s="1">
         <v>-424000000</v>
       </c>
-      <c r="X88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y88" s="34">
+      <c r="X88" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y88" s="33">
         <f>Y85/(Y86+Y87)</f>
         <v>4.3957990636467166E-2</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:Q89" si="9">(-1*B88)/B3</f>
+        <v>2.4230517354289455E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.8257798705120659E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.840970350404313E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7744863831820352E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.7945205479452052E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10194585448392555</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.3650793650793651E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.5806980557507609E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.6899179366940207E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.460725075528701E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.061465184849172E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0458557175748274E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9117581979908836E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9382116543871401E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6138433515482695E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2769930427973376E-2</v>
+      </c>
+      <c r="X89" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:Q89" si="7">(-1*B88)/B3</f>
-        <v>2.4230517354289455E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8257798705120659E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.840970350404313E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7744863831820352E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7945205479452052E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10194585448392555</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.3650793650793651E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.5806980557507609E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6899179366940207E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.460725075528701E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.061465184849172E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0458557175748274E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9117581979908836E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9382116543871401E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6138433515482695E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2769930427973376E-2</v>
-      </c>
-      <c r="X89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y89" s="24">
+      <c r="Y89" s="31">
         <f>Q27</f>
         <v>939000000</v>
       </c>
@@ -8027,22 +8253,22 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-414000000</v>
@@ -8074,10 +8300,10 @@
       <c r="Q90" s="1">
         <v>-246000000</v>
       </c>
-      <c r="X90" s="23" t="s">
+      <c r="X90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Y90" s="24">
+      <c r="Y90" s="31">
         <f>Q25</f>
         <v>12434000000</v>
       </c>
@@ -8108,7 +8334,7 @@
         <v>-15000000</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-14000000</v>
@@ -8126,18 +8352,18 @@
         <v>-5000000</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1">
         <v>-200000000</v>
       </c>
-      <c r="X91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y91" s="34">
+      <c r="X91" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y91" s="33">
         <f>Y89/Y90</f>
         <v>7.5518738941611707E-2</v>
       </c>
@@ -8147,22 +8373,22 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>13000000</v>
@@ -8171,7 +8397,7 @@
         <v>35000000</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1">
         <v>104000000</v>
@@ -8186,7 +8412,7 @@
         <v>5000000</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1">
         <v>169000000</v>
@@ -8194,10 +8420,10 @@
       <c r="Q92" s="1">
         <v>200000000</v>
       </c>
-      <c r="X92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y92" s="36">
+      <c r="X92" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y92" s="33">
         <f>Y88*(1-Y91)</f>
         <v>4.0638338617193993E-2</v>
       </c>
@@ -8225,10 +8451,10 @@
         <v>1000000</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1">
         <v>110000000</v>
@@ -8254,10 +8480,10 @@
       <c r="Q93" s="1">
         <v>3000000</v>
       </c>
-      <c r="X93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y93" s="64"/>
+      <c r="X93" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y93" s="66"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8311,11 +8537,12 @@
       <c r="Q94" s="10">
         <v>-667000000</v>
       </c>
-      <c r="X94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y94" s="37">
-        <v>4.095E-2</v>
+      <c r="X94" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y94" s="34">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8370,12 +8597,12 @@
       <c r="Q95" s="1">
         <v>-2361000000</v>
       </c>
-      <c r="X95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y95" s="57" cm="1">
+      <c r="X95" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y95" s="35" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.0956999999999999</v>
+        <v>1.1225000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8383,10 +8610,10 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>304000000</v>
@@ -8430,10 +8657,10 @@
       <c r="Q96" s="1">
         <v>114000000</v>
       </c>
-      <c r="X96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y96" s="37">
+      <c r="X96" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8451,7 +8678,7 @@
         <v>-6000000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-93000000</v>
@@ -8466,13 +8693,13 @@
         <v>-12000000</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-7258000000</v>
@@ -8489,12 +8716,12 @@
       <c r="Q97" s="1">
         <v>-8455000000</v>
       </c>
-      <c r="X97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y97" s="36">
+      <c r="X97" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y97" s="33">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.8119885000000009E-2</v>
+        <v>8.933977500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8502,16 +8729,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-86000000</v>
@@ -8549,10 +8776,10 @@
       <c r="Q98" s="1">
         <v>-7032000000</v>
       </c>
-      <c r="X98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y98" s="64"/>
+      <c r="X98" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y98" s="66"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8565,7 +8792,7 @@
         <v>-3000000</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>3000000</v>
@@ -8606,10 +8833,10 @@
       <c r="Q99" s="1">
         <v>1918000000</v>
       </c>
-      <c r="X99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y99" s="24">
+      <c r="X99" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y99" s="31">
         <f>Y86+Y87</f>
         <v>39515000000</v>
       </c>
@@ -8666,12 +8893,12 @@
       <c r="Q100" s="10">
         <v>-15816000000</v>
       </c>
-      <c r="X100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y100" s="34">
+      <c r="X100" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y100" s="33">
         <f>Y99/Y103</f>
-        <v>0.10206017126960948</v>
+        <v>0.101592363565685</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8679,59 +8906,59 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y101" s="49" cm="1">
+        <v>91</v>
+      </c>
+      <c r="X101" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y101" s="36" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>347658561522</v>
+        <v>349441400000</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8786,12 +9013,12 @@
       <c r="Q102" s="10">
         <v>253000000</v>
       </c>
-      <c r="X102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y102" s="34">
+      <c r="X102" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y102" s="33">
         <f>Y101/Y103</f>
-        <v>0.89793982873039058</v>
+        <v>0.89840763643431498</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8846,15 +9073,15 @@
       <c r="Q103" s="1">
         <v>12163000000</v>
       </c>
-      <c r="X103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y103" s="38">
+      <c r="X103" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y103" s="37">
         <f>Y99+Y101</f>
-        <v>387173561522</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+        <v>388956400000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -8906,326 +9133,388 @@
       <c r="Q104" s="11">
         <v>12416000000</v>
       </c>
-      <c r="X104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y104" s="64"/>
-    </row>
-    <row r="105" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X104" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y104" s="66"/>
+    </row>
+    <row r="105" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:P105" si="10">(B22*(1-$Y$91))+B77+B88+B81</f>
+        <v>38929467.588869229</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>207917001.76934212</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>141375100.53080264</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>411808267.65320897</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>549897056.45809877</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>365048093.93598199</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>370313656.1042304</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>829922792.34357405</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>1711753418.0472898</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>2423887164.227119</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>5246038845.1021395</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>7367211275.5348244</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>8375913463.0850906</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>11245867781.888371</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>13346655862.956409</v>
+      </c>
+      <c r="Q105" s="1">
+        <f>(Q22*(1-$Y$91))+Q77+Q88+Q81</f>
+        <v>16434745938.555573</v>
+      </c>
+      <c r="R105" s="29">
+        <f>Q105*(1+$Y$106)</f>
+        <v>17473830001.5877</v>
+      </c>
+      <c r="S105" s="29">
+        <f t="shared" ref="S105:V105" si="11">R105*(1+$Y$106)</f>
+        <v>18578609980.704201</v>
+      </c>
+      <c r="T105" s="29">
+        <f t="shared" si="11"/>
+        <v>19753239489.210983</v>
+      </c>
+      <c r="U105" s="29">
+        <f t="shared" si="11"/>
+        <v>21002134751.920471</v>
+      </c>
+      <c r="V105" s="29">
+        <f t="shared" si="11"/>
+        <v>22329991208.720177</v>
+      </c>
+      <c r="W105" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="X105" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y105" s="39">
+        <f>(Y100*Y92)+(Y102*Y97)</f>
+        <v>8.4392080968826902E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:Q106" si="12">(C107/B107)-1</f>
         <v>0.25688073394495414</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f t="shared" si="12"/>
         <v>-0.40875912408759119</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="12"/>
         <v>4.3209876543209873</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
         <v>0.42459396751740131</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
         <v>-0.26384364820846906</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:Q105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
         <v>7.5221238938053103E-2</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
         <v>0.5761316872427984</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
         <v>1.2519582245430811</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
         <v>0.55826086956521737</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
         <v>1.0394345238095237</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
         <v>0.50401313389273983</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
         <v>0.12371134020618557</v>
       </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
         <v>0.25180787911494873</v>
       </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
         <v>0.14856009656837377</v>
       </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
         <v>0.22453269274078513</v>
       </c>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="15"/>
-      <c r="X105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y105" s="26">
-        <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.3273910244024932E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>109000000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>137000000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>81000000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>431000000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>614000000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>452000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>486000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>766000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1725000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>2688000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>5482000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>8245000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>9265000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>11598000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>13321000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>16312000000</v>
-      </c>
-      <c r="R106" s="58">
-        <f>Q106*(1+$Y$106)</f>
-        <v>17198309483.132061</v>
-      </c>
-      <c r="S106" s="58">
-        <f t="shared" ref="S106:V106" si="9">R106*(1+$Y$106)</f>
-        <v>18132776427.022446</v>
-      </c>
-      <c r="T106" s="58">
-        <f t="shared" si="9"/>
-        <v>19118017458.3358</v>
-      </c>
-      <c r="U106" s="58">
-        <f t="shared" si="9"/>
-        <v>20156791377.659447</v>
-      </c>
-      <c r="V106" s="58">
-        <f t="shared" si="9"/>
-        <v>21252006884.496994</v>
-      </c>
-      <c r="W106" s="39" t="s">
-        <v>146</v>
+      <c r="R106" s="52">
+        <v>19188000000</v>
+      </c>
+      <c r="S106" s="52">
+        <v>20283000000</v>
+      </c>
+      <c r="T106" s="52">
+        <v>22284000000</v>
+      </c>
+      <c r="U106" s="52">
+        <v>25378000000</v>
+      </c>
+      <c r="V106" s="52">
+        <v>26613000000</v>
+      </c>
+      <c r="W106" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="X106" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y106" s="41">
         <f>(SUM(R4:V4)/5)</f>
-        <v>5.4334813826143871E-2</v>
+        <v>6.3224832736504769E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="39"/>
-      <c r="T107" s="39"/>
-      <c r="U107" s="39"/>
-      <c r="V107" s="42">
+      <c r="A107" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>109000000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>137000000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>81000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>431000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>614000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>452000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>486000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>766000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1725000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>2688000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>5482000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>8245000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>9265000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>11598000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>13321000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>16312000000</v>
+      </c>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="27"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="62">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>373808913206.45416</v>
-      </c>
-      <c r="W107" s="43" t="s">
+        <v>459292292087.18182</v>
+      </c>
+      <c r="W107" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="X107" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y107" s="43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R108" s="62">
+        <f t="shared" ref="R108:U108" si="13">R107+R106</f>
+        <v>19188000000</v>
+      </c>
+      <c r="S108" s="62">
+        <f t="shared" si="13"/>
+        <v>20283000000</v>
+      </c>
+      <c r="T108" s="62">
+        <f t="shared" si="13"/>
+        <v>22284000000</v>
+      </c>
+      <c r="U108" s="62">
+        <f t="shared" si="13"/>
+        <v>25378000000</v>
+      </c>
+      <c r="V108" s="62">
+        <f>V107+V106</f>
+        <v>485905292087.18182</v>
+      </c>
+      <c r="W108" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="X108" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y108" s="41">
+        <f>Y105</f>
+        <v>8.4392080968826902E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R109" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="X107" s="44" t="s">
+      <c r="S109" s="63"/>
+    </row>
+    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R110" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="Y107" s="45">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="42">
-        <f t="shared" ref="R108:T108" si="10">R107+R106</f>
-        <v>17198309483.132061</v>
-      </c>
-      <c r="S108" s="42">
-        <f t="shared" si="10"/>
-        <v>18132776427.022446</v>
-      </c>
-      <c r="T108" s="42">
-        <f t="shared" si="10"/>
-        <v>19118017458.3358</v>
-      </c>
-      <c r="U108" s="42">
-        <f>U107+U106</f>
-        <v>20156791377.659447</v>
-      </c>
-      <c r="V108" s="42">
-        <f>V107+V106</f>
-        <v>395060920090.95117</v>
-      </c>
-      <c r="W108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="X108" s="46" t="s">
+      <c r="S110" s="36">
+        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
+        <v>394828331319.04254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R111" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="Y108" s="47">
-        <f>Y105</f>
-        <v>8.3273910244024932E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="S109" s="60"/>
-    </row>
-    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="S110" s="49">
-        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>325838537423.57544</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="S111" s="49">
+      <c r="S111" s="36">
         <f>Q40</f>
         <v>12416000000</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="S112" s="49">
+      <c r="R112" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="S112" s="36">
         <f>Y99</f>
         <v>39515000000</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="S113" s="49">
+      <c r="R113" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="S113" s="36">
         <f>S110+S111-S112</f>
-        <v>298739537423.57544</v>
+        <v>367729331319.04254</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="S114" s="50">
+      <c r="R114" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="S114" s="45">
         <f>Q34*(1+(5*W16))</f>
         <v>425411257.6705367</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="51" t="s">
+      <c r="R115" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="S115" s="47">
+        <f>S113/S114</f>
+        <v>864.40902700283868</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R116" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="S116" s="48" cm="1">
+        <f t="array" ref="S116">_FV(A1,"Price")</f>
+        <v>846.75</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R117" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="S117" s="49">
+        <f>S115/S116-1</f>
+        <v>2.0855065843328857E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R118" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="S115" s="52">
-        <f>S113/S114</f>
-        <v>702.23702837440374</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="S116" s="56" cm="1">
-        <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>842.43</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="S117" s="54">
-        <f>S115/S116-1</f>
-        <v>-0.1664149800287219</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="S118" s="55" t="str">
+      <c r="S118" s="50" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -9272,8 +9561,9 @@
     <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1730168/000173016822000118/0001730168-22-000118-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1730168/000173016822000118/0001730168-22-000118-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="R1" r:id="rId34" display="https://finbox.com/NASDAQGS:AVGO/explorer/revenue_proj" xr:uid="{59F9CAFF-6105-EA40-B2E6-AF2EA71AB7AB}"/>
+    <hyperlink ref="W106" r:id="rId35" xr:uid="{4E4F31E2-DE26-C648-9386-D6919A3C6471}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId35"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Broadcom.xlsx
+++ b/Technology/Hardware/Broadcom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A4B127-8F55-A24E-8E87-DFC1D42D66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C5561-0337-D945-9F21-A6B5DB9ED16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -994,6 +994,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,7 +1009,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2190,9 +2192,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2201,20 +2201,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2225,23 +2228,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2367,13 +2359,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>921.7799</v>
+    <v>923.18</v>
     <v>415.06819999999999</v>
-    <v>1.1225000000000001</v>
-    <v>-1.25</v>
-    <v>-1.474E-3</v>
-    <v>-0.25</v>
-    <v>-2.9520000000000002E-4</v>
+    <v>1.1192</v>
+    <v>16.399999999999999</v>
+    <v>1.8189999999999998E-2</v>
+    <v>-1.96</v>
+    <v>-2.1349999999999997E-3</v>
     <v>USD</v>
     <v>Broadcom Inc. is a technology company. The Company designs, develops and supplies a range of semiconductor and infrastructure software solutions. The Company operates through two segments: semiconductor solutions and infrastructure software. Its semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. It provides semiconductor solutions for managing the movement of data in data center, telecom, enterprise and embedded networking applications. It also provides a variety of radio frequency (RF) semiconductor devices, wireless connectivity solutions and custom touch controllers for the wireless market. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. The Company's mainframe software provides DevOps, AIOps, Security and Data Management Systems solutions.</v>
     <v>20000</v>
@@ -2381,25 +2373,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1320 Ridder Park Drive, SAN JOSE, CA, 95131 US</v>
-    <v>857.99</v>
+    <v>923.18</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.998424490623</v>
+    <v>45132.999699455468</v>
     <v>0</v>
-    <v>844.66</v>
-    <v>349441400000</v>
+    <v>900.62</v>
+    <v>378841070346</v>
     <v>Broadcom Inc.</v>
     <v>Broadcom Inc.</v>
-    <v>850.43</v>
-    <v>26.5306</v>
-    <v>848</v>
-    <v>846.75</v>
-    <v>846.5</v>
+    <v>900.62</v>
+    <v>28.720400000000001</v>
+    <v>901.59</v>
+    <v>917.99</v>
+    <v>916.03</v>
     <v>412685400</v>
     <v>AVGO</v>
     <v>Broadcom Inc. (XNAS:AVGO)</v>
-    <v>1940866</v>
-    <v>3499416</v>
+    <v>2004161</v>
+    <v>2743284</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2564,9 +2556,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2987,10 +2979,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="U96" sqref="U96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3220,64 +3212,64 @@
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>0.11263916175507527</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>-0.12654502648616839</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.41037735849056611</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
         <v>0.11610129001433345</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>1.1986301369863117E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>6.5989847715736127E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>0.69404761904761902</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.59850081986413683</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>0.94021101992966005</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>0.33202416918429001</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="65">
         <f t="shared" si="0"/>
         <v>0.182127466545702</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="65">
         <f t="shared" si="0"/>
         <v>8.3892939370683095E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="65">
         <f t="shared" si="0"/>
         <v>5.7131477629773775E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="65">
         <f t="shared" si="0"/>
         <v>0.14911252511721362</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="65">
         <f t="shared" si="0"/>
         <v>0.20958105646630232</v>
       </c>
@@ -4087,15 +4079,15 @@
       </c>
       <c r="X16" s="57">
         <f>Y101/Q3</f>
-        <v>10.524392374183055</v>
+        <v>11.409844602776857</v>
       </c>
       <c r="Y16" s="57">
         <f>Y101/Q28</f>
-        <v>30.399425837320575</v>
+        <v>32.957030913092652</v>
       </c>
       <c r="Z16" s="59">
         <f>Y101/Q107</f>
-        <v>21.422351642962237</v>
+        <v>23.224685528813144</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4268,19 +4260,19 @@
       <c r="Q19" s="10">
         <v>19155000000</v>
       </c>
-      <c r="R19" s="67">
+      <c r="R19" s="63">
         <v>22741000000</v>
       </c>
-      <c r="S19" s="67">
+      <c r="S19" s="63">
         <v>24095000000</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="63">
         <v>26358000000</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="63">
         <v>27778000000</v>
       </c>
-      <c r="V19" s="67">
+      <c r="V19" s="63">
         <v>29088000000</v>
       </c>
       <c r="W19" s="26">
@@ -4289,15 +4281,15 @@
       </c>
       <c r="X19" s="57">
         <f>Y101/R3</f>
-        <v>9.7699387703749263</v>
+        <v>10.591916301227389</v>
       </c>
       <c r="Y19" s="58">
         <f>S116/R31</f>
-        <v>19.14424598688673</v>
+        <v>20.754917476825685</v>
       </c>
       <c r="Z19" s="59">
         <f>Y101/R106</f>
-        <v>18.211455076089223</v>
+        <v>19.743645525641025</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4519,11 +4511,11 @@
       </c>
       <c r="Y22" s="60">
         <f>(-1*Q98)/Y101</f>
-        <v>2.0123545750446285E-2</v>
+        <v>1.8561873435680012E-2</v>
       </c>
       <c r="Z22" s="61">
         <f>Q107/Y101</f>
-        <v>4.6680215910307139E-2</v>
+        <v>4.3057633601082529E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7870,10 +7862,10 @@
       <c r="Q83" s="1">
         <v>-627000000</v>
       </c>
-      <c r="X83" s="64" t="s">
+      <c r="X83" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="Y83" s="65"/>
+      <c r="Y83" s="68"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7927,10 +7919,10 @@
       <c r="Q84" s="1">
         <v>-79000000</v>
       </c>
-      <c r="X84" s="66" t="s">
+      <c r="X84" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="Y84" s="66"/>
+      <c r="Y84" s="69"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8480,10 +8472,10 @@
       <c r="Q93" s="1">
         <v>3000000</v>
       </c>
-      <c r="X93" s="66" t="s">
+      <c r="X93" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="Y93" s="66"/>
+      <c r="Y93" s="69"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8542,7 +8534,7 @@
       </c>
       <c r="Y94" s="34">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8602,7 +8594,7 @@
       </c>
       <c r="Y95" s="35" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.1225000000000001</v>
+        <v>1.1192</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8721,7 +8713,7 @@
       </c>
       <c r="Y97" s="33">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.933977500000001E-2</v>
+        <v>8.9349696000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8776,10 +8768,10 @@
       <c r="Q98" s="1">
         <v>-7032000000</v>
       </c>
-      <c r="X98" s="66" t="s">
+      <c r="X98" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="Y98" s="66"/>
+      <c r="Y98" s="69"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8898,7 +8890,7 @@
       </c>
       <c r="Y100" s="33">
         <f>Y99/Y103</f>
-        <v>0.101592363565685</v>
+        <v>9.4453033673729772E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8958,7 +8950,7 @@
       </c>
       <c r="Y101" s="36" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>349441400000</v>
+        <v>378841070346</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9018,7 +9010,7 @@
       </c>
       <c r="Y102" s="33">
         <f>Y101/Y103</f>
-        <v>0.89840763643431498</v>
+        <v>0.90554696632627019</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9078,7 +9070,7 @@
       </c>
       <c r="Y103" s="37">
         <f>Y99+Y101</f>
-        <v>388956400000</v>
+        <v>418356070346</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9133,10 +9125,10 @@
       <c r="Q104" s="11">
         <v>12416000000</v>
       </c>
-      <c r="X104" s="66" t="s">
+      <c r="X104" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="Y104" s="66"/>
+      <c r="Y104" s="69"/>
     </row>
     <row r="105" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -9234,7 +9226,7 @@
       </c>
       <c r="Y105" s="39">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.4392080968826902E-2</v>
+        <v>8.4748760520828748E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9386,7 +9378,7 @@
       <c r="U107" s="27"/>
       <c r="V107" s="62">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>459292292087.18182</v>
+        <v>456550475059.48883</v>
       </c>
       <c r="W107" s="28" t="s">
         <v>145</v>
@@ -9417,7 +9409,7 @@
       </c>
       <c r="V108" s="62">
         <f>V107+V106</f>
-        <v>485905292087.18182</v>
+        <v>483163475059.48883</v>
       </c>
       <c r="W108" s="28" t="s">
         <v>142</v>
@@ -9427,14 +9419,14 @@
       </c>
       <c r="Y108" s="41">
         <f>Y105</f>
-        <v>8.4392080968826902E-2</v>
+        <v>8.4748760520828748E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="63" t="s">
+      <c r="R109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="S109" s="63"/>
+      <c r="S109" s="66"/>
     </row>
     <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="R110" s="45" t="s">
@@ -9442,7 +9434,7 @@
       </c>
       <c r="S110" s="36">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>394828331319.04254</v>
+        <v>392411847138.15546</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9469,7 +9461,7 @@
       </c>
       <c r="S113" s="36">
         <f>S110+S111-S112</f>
-        <v>367729331319.04254</v>
+        <v>365312847138.15546</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9487,7 +9479,7 @@
       </c>
       <c r="S115" s="47">
         <f>S113/S114</f>
-        <v>864.40902700283868</v>
+        <v>858.72867854633751</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9496,7 +9488,7 @@
       </c>
       <c r="S116" s="48" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>846.75</v>
+        <v>917.99</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9505,7 +9497,7 @@
       </c>
       <c r="S117" s="49">
         <f>S115/S116-1</f>
-        <v>2.0855065843328857E-2</v>
+        <v>-6.4555519617493062E-2</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9514,7 +9506,7 @@
       </c>
       <c r="S118" s="50" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Hardware/Broadcom.xlsx
+++ b/Technology/Hardware/Broadcom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF3E9B-EF20-A14F-9B81-C829B1126FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DC87F5-179D-014B-A4EF-8FA9DE3F3E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1582,10 +1582,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1602,7 +1602,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1740,12 +1740,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>925.91</v>
-    <v>441.36</v>
-    <v>1.1183000000000001</v>
-    <v>11.61</v>
-    <v>1.4043000000000002E-2</v>
-    <v>-1.85</v>
-    <v>-2.2070000000000002E-3</v>
+    <v>469.03</v>
+    <v>1.1241000000000001</v>
+    <v>13.31</v>
+    <v>1.4825E-2</v>
     <v>USD</v>
     <v>Broadcom Inc. is a global technology company that designs, develops and supplies a range of semiconductor and infrastructure software solutions. The Company’s segments include semiconductor solutions and infrastructure software. The semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. It provides semiconductor solutions for managing the movement of data in data center, service provider, enterprise and embedded networking applications. It provides a variety of radio frequency semiconductor devices, wireless connectivity solutions, custom touch controllers, and inductive charging solutions for mobile applications. It provides a portfolio of software solutions that enables customers to plan, develop, automate, manage, and secure applications across various platforms.</v>
     <v>20000</v>
@@ -1753,25 +1751,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1320 Ridder Park Drive, SAN JOSE, CA, 95131 US</v>
-    <v>840.21</v>
+    <v>912.90840000000003</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45226.999830370311</v>
+    <v>45239.040954270313</v>
     <v>0</v>
-    <v>828.54</v>
-    <v>346020900000</v>
+    <v>899</v>
+    <v>376055696115</v>
     <v>Broadcom Inc.</v>
     <v>Broadcom Inc.</v>
-    <v>830</v>
-    <v>25.6191</v>
-    <v>826.75</v>
-    <v>838.36</v>
-    <v>836.51</v>
+    <v>900</v>
+    <v>27.8429</v>
+    <v>897.82</v>
+    <v>911.13</v>
     <v>412735500</v>
     <v>AVGO</v>
     <v>Broadcom Inc. (XNAS:AVGO)</v>
-    <v>1823628</v>
-    <v>2069829</v>
+    <v>235</v>
+    <v>2066075</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -1803,8 +1800,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1825,7 +1820,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1842,7 +1836,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1853,16 +1847,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1928,19 +1919,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1985,9 +1970,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1995,9 +1977,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -15701,8 +15680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE51A4E-2581-4F40-9E5A-E72E00D445B0}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15751,7 +15730,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>346020900000</v>
+        <v>376055696115</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>201</v>
@@ -15779,14 +15758,14 @@
       </c>
       <c r="I3" s="47">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>462966885579.93158</v>
+        <v>456236006738.41779</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="110">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.1741461281674025E-2</v>
+        <v>2.0005015421171612E-2</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>250</v>
@@ -15829,14 +15808,14 @@
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>397565422690.28717</v>
+        <v>391636140118.19684</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="62" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.4043000000000002E-2</v>
+        <v>1.4825E-2</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>212</v>
@@ -15879,14 +15858,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>370279422690.28717</v>
+        <v>364350140118.19684</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="57" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>838.36</v>
+        <v>911.13</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>219</v>
@@ -15904,7 +15883,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>9.6667383712809052</v>
+        <v>10.505816346277413</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>221</v>
@@ -15932,14 +15911,14 @@
       </c>
       <c r="I6" s="62">
         <f>N25</f>
-        <v>8.3174571095430999E-2</v>
+        <v>8.4032824244934995E-2</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>869.9998113478872</v>
+        <v>856.06850865310696</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>225</v>
@@ -15957,14 +15936,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>18.868035334532962</v>
+        <v>20.505790725503026</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="69">
         <f>F14/A3</f>
-        <v>5.5285677830443192E-2</v>
+        <v>5.087012428645659E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>228</v>
@@ -15991,7 +15970,7 @@
       </c>
       <c r="K7" s="76">
         <f>K6/K5-1</f>
-        <v>3.7740125182364581E-2</v>
+        <v>-6.0432091300794633E-2</v>
       </c>
       <c r="L7" s="77" t="s">
         <v>231</v>
@@ -16296,7 +16275,7 @@
       </c>
       <c r="O14" s="95">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="48"/>
     </row>
@@ -16346,7 +16325,7 @@
       </c>
       <c r="O15" s="99" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1183000000000001</v>
+        <v>1.1241000000000001</v>
       </c>
       <c r="P15" s="48"/>
     </row>
@@ -16401,7 +16380,7 @@
       </c>
       <c r="O17" s="106">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.8205565000000014E-2</v>
+        <v>8.8751789000000011E-2</v>
       </c>
       <c r="P17" s="48"/>
     </row>
@@ -16476,7 +16455,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>346020900000</v>
+        <v>376055696115</v>
       </c>
       <c r="P20" s="48"/>
     </row>
@@ -16498,7 +16477,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>385361900000</v>
+        <v>415396696115</v>
       </c>
       <c r="P21" s="48"/>
     </row>
@@ -16521,7 +16500,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>0.1020884524391228</v>
+        <v>9.4707060426664269E-2</v>
       </c>
       <c r="P22" s="48"/>
     </row>
@@ -16544,7 +16523,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.89791154756087721</v>
+        <v>0.90529293957333568</v>
       </c>
       <c r="P23" s="48"/>
     </row>
@@ -16584,7 +16563,7 @@
       <c r="M25" s="86"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.3174571095430999E-2</v>
+        <v>8.4032824244934995E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="48"/>

--- a/Technology/Hardware/Broadcom.xlsx
+++ b/Technology/Hardware/Broadcom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DC87F5-179D-014B-A4EF-8FA9DE3F3E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799ECBC-A281-154F-8439-18C5D62B681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -996,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1079,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1124,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1191,23 +1143,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,7 +1239,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1225,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1308,242 +1471,254 @@
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,6 +1760,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1602,7 +1778,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1614,6 +1790,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1739,36 +1916,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>925.91</v>
-    <v>469.03</v>
-    <v>1.1241000000000001</v>
-    <v>13.31</v>
-    <v>1.4825E-2</v>
+    <v>999.87</v>
+    <v>516.04999999999995</v>
+    <v>1.2146999999999999</v>
+    <v>4.2699999999999996</v>
+    <v>4.6129999999999999E-3</v>
+    <v>0.8</v>
+    <v>8.6019999999999998E-4</v>
     <v>USD</v>
-    <v>Broadcom Inc. is a global technology company that designs, develops and supplies a range of semiconductor and infrastructure software solutions. The Company’s segments include semiconductor solutions and infrastructure software. The semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. It provides semiconductor solutions for managing the movement of data in data center, service provider, enterprise and embedded networking applications. It provides a variety of radio frequency semiconductor devices, wireless connectivity solutions, custom touch controllers, and inductive charging solutions for mobile applications. It provides a portfolio of software solutions that enables customers to plan, develop, automate, manage, and secure applications across various platforms.</v>
+    <v>Broadcom Inc. is a global technology company that designs, develops, and supplies a range of semiconductor, enterprise software and security solutions. Its segments include semiconductor solutions and infrastructure software. The semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. It provides a variety of radio frequency semiconductor devices, custom touch controllers, and inductive charging solutions for mobile applications. The Company’s solutions include service provider and enterprise networking and storage, mobile device and broadband connectivity, mainframe, cybersecurity, and private and hybrid cloud infrastructure. Its product portfolio serves markets, such as cloud, data center, networking, broadband, wireless, storage, industrial, and enterprise software.</v>
     <v>20000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1320 Ridder Park Drive, SAN JOSE, CA, 95131 US</v>
-    <v>912.90840000000003</v>
+    <v>933.9</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45239.040954270313</v>
+    <v>45262.040057418752</v>
     <v>0</v>
-    <v>899</v>
-    <v>376055696115</v>
+    <v>908</v>
+    <v>383844000000</v>
     <v>Broadcom Inc.</v>
     <v>Broadcom Inc.</v>
-    <v>900</v>
-    <v>27.8429</v>
-    <v>897.82</v>
-    <v>911.13</v>
+    <v>922.46</v>
+    <v>28.289000000000001</v>
+    <v>925.73</v>
+    <v>930</v>
+    <v>930.8</v>
     <v>412735500</v>
     <v>AVGO</v>
     <v>Broadcom Inc. (XNAS:AVGO)</v>
-    <v>235</v>
-    <v>2066075</v>
+    <v>2961244</v>
+    <v>2751083</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -1800,6 +1980,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1820,6 +2002,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1836,7 +2019,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1847,13 +2030,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1919,13 +2105,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1970,6 +2162,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1977,6 +2172,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2362,9 +2560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15680,8 +15878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE51A4E-2581-4F40-9E5A-E72E00D445B0}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15689,1741 +15887,1800 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="e" vm="1">
+    <row r="1" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-    </row>
-    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+    </row>
+    <row r="2" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" cm="1">
+      <c r="A3" s="74" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>376055696115</v>
-      </c>
-      <c r="B3" s="43" t="s">
+        <v>383844000000</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="76">
         <f>Financials!O8*0.01</f>
         <v>0.68280000000000007</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="76">
         <f>SUM(C11:E11)/3</f>
         <v>0.13860835307109656</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="78">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>6.2379534193363895E-3</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="47">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>456236006738.41779</v>
-      </c>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="79">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>513719318870.58215</v>
+      </c>
+      <c r="J3" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="110">
+      <c r="K3" s="81">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.0005015421171612E-2</v>
-      </c>
-      <c r="L3" s="45" t="s">
+        <v>1.9599107970946529E-2</v>
+      </c>
+      <c r="L3" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="119" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="48"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="83">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-27286000000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="44">
         <f>Financials!O17*0.01</f>
         <v>0.45689999999999997</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="44">
         <f>SUM(C13:E13)/3</f>
         <v>0.68960511635454347</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="86">
         <f>A5*(1+(5*G3))</f>
         <v>425608624.11753255</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="55">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>391636140118.19684</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="I4" s="43">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>440809339632.45782</v>
+      </c>
+      <c r="J4" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="62" cm="1">
+      <c r="K4" s="87" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.4825E-2</v>
-      </c>
-      <c r="L4" s="54" t="s">
+        <v>4.6129999999999999E-3</v>
+      </c>
+      <c r="L4" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="121" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="48"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
+      <c r="A5" s="83" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>412735500</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="44">
         <f>Financials!O34*0.01</f>
         <v>0.39250000000000002</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="51">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="44">
+        <f>SUM(C16:E16)/3</f>
         <v>0.2470549534731464</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="86">
         <f>Financials!O56</f>
         <v>12055000000</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="43">
         <f>I4+G5-G6</f>
-        <v>364350140118.19684</v>
-      </c>
-      <c r="J5" s="52" t="s">
+        <v>413523339632.45782</v>
+      </c>
+      <c r="J5" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="57" cm="1">
+      <c r="K5" s="90" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>911.13</v>
-      </c>
-      <c r="L5" s="50" t="s">
+        <v>930</v>
+      </c>
+      <c r="L5" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="58" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="105">
         <f>Financials!O21</f>
         <v>1623000000</v>
       </c>
-      <c r="P5" s="48"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60">
+      <c r="A6" s="92">
         <f>O20/F10</f>
-        <v>10.505816346277413</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>10.723397122503142</v>
+      </c>
+      <c r="B6" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="44">
         <f>Financials!O190</f>
         <v>0.53315117512833532</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="44">
         <f>Financials!O33/Financials!O126</f>
         <v>0.63032746048281174</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="86">
         <f>Financials!O96+Financials!O105</f>
         <v>39341000000</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="87">
         <f>N25</f>
-        <v>8.4032824244934995E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+        <v>8.7850468755943295E-2</v>
+      </c>
+      <c r="J6" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="45">
         <f>I5/G4</f>
-        <v>856.06850865310696</v>
-      </c>
-      <c r="L6" s="64" t="s">
+        <v>971.60470018639148</v>
+      </c>
+      <c r="L6" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="65" t="s">
+      <c r="M6" s="42"/>
+      <c r="N6" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="66">
+      <c r="O6" s="105">
         <f>Financials!O96</f>
         <v>1119000000</v>
       </c>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67">
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94">
         <f>O20/F12</f>
-        <v>20.505790725503026</v>
-      </c>
-      <c r="B7" s="68" t="s">
+        <v>20.93047603468019</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="69">
-        <f>F14/A3</f>
-        <v>5.087012428645659E-2</v>
-      </c>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="96">
+        <f>F15/A3</f>
+        <v>4.9994268504913453E-2</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="97">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.19780608922175189</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="98">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.7818288871778614</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="100">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="76">
+      <c r="K7" s="102">
         <f>K6/K5-1</f>
-        <v>-6.0432091300794633E-2</v>
-      </c>
-      <c r="L7" s="77" t="s">
+        <v>4.4736236759560732E-2</v>
+      </c>
+      <c r="L7" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="65" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="105">
         <f>Financials!O105</f>
         <v>38222000000</v>
       </c>
-      <c r="P7" s="48"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="79" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="80">
+      <c r="O8" s="107">
         <f>O5/(O6+O7)</f>
         <v>4.125467069977886E-2</v>
       </c>
-      <c r="P8" s="48"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55">
         <v>2019</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="55">
         <v>2020</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="55">
         <v>2021</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="56">
         <v>2022</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="57">
         <v>2023</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="58">
         <v>2024</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="58">
         <v>2025</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="58">
         <v>2026</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="59">
         <v>2027</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="65" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="105">
         <f>Financials!O25</f>
         <v>833000000</v>
       </c>
-      <c r="P9" s="48"/>
+      <c r="P9" s="42"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="61">
         <v>22597000000</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="61">
         <v>23888000000</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="61">
         <v>27450000000</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="62">
         <v>33203000000</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="61">
         <v>35795000000</v>
       </c>
-      <c r="G10" s="88">
-        <v>38487000000</v>
-      </c>
-      <c r="H10" s="88">
-        <v>40924000000</v>
-      </c>
-      <c r="I10" s="88">
-        <v>43309000000</v>
-      </c>
-      <c r="J10" s="88">
-        <v>44989000000</v>
-      </c>
-      <c r="K10" s="90" t="s">
+      <c r="G10" s="61">
+        <v>52166000000</v>
+      </c>
+      <c r="H10" s="61">
+        <v>57055000000</v>
+      </c>
+      <c r="I10" s="61">
+        <v>59426000000</v>
+      </c>
+      <c r="J10" s="62">
+        <v>62000000000</v>
+      </c>
+      <c r="K10" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="L10" s="47"/>
+      <c r="N10" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="105">
         <f>Financials!O24</f>
         <v>14750000000</v>
       </c>
-      <c r="P10" s="48"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92">
+      <c r="A11" s="64"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>5.7131477629773775E-2</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="48">
         <f t="shared" si="0"/>
         <v>0.14911252511721362</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="48">
         <f t="shared" si="0"/>
         <v>0.20958105646630232</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="49">
         <f t="shared" si="0"/>
         <v>7.806523506912022E-2</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="48">
         <f t="shared" si="0"/>
-        <v>7.5206034362341079E-2</v>
-      </c>
-      <c r="H11" s="92">
+        <v>0.45735437910322663</v>
+      </c>
+      <c r="H11" s="48">
         <f t="shared" si="0"/>
-        <v>6.3320082105646103E-2</v>
-      </c>
-      <c r="I11" s="92">
+        <v>9.3720047540543749E-2</v>
+      </c>
+      <c r="I11" s="48">
         <f t="shared" si="0"/>
-        <v>5.827876062945947E-2</v>
-      </c>
-      <c r="J11" s="92">
+        <v>4.1556392954167132E-2</v>
+      </c>
+      <c r="J11" s="65">
         <f t="shared" si="0"/>
-        <v>3.8791013415225395E-2</v>
-      </c>
-      <c r="K11" s="94">
+        <v>4.3314374179652004E-2</v>
+      </c>
+      <c r="K11" s="65">
         <f>SUM(F11:J11)/5</f>
-        <v>6.2732225116358453E-2</v>
-      </c>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="65" t="s">
+        <v>0.14280208576934195</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="104" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="95">
+      <c r="O11" s="108">
         <f>O9/O10</f>
         <v>5.647457627118644E-2</v>
       </c>
-      <c r="P11" s="48"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="61">
         <v>2724000000</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="61">
         <v>2960000000</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="61">
         <v>6736000000</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="61">
         <v>11495000000</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="66">
         <v>18339000000</v>
       </c>
-      <c r="G12" s="88">
-        <v>19923000000</v>
-      </c>
-      <c r="H12" s="88">
-        <v>21455000000</v>
-      </c>
-      <c r="I12" s="88">
-        <v>21025000000</v>
-      </c>
-      <c r="J12" s="88">
-        <v>22241000000</v>
-      </c>
-      <c r="K12" s="90" t="s">
+      <c r="G12" s="61">
+        <v>23280000000</v>
+      </c>
+      <c r="H12" s="61">
+        <v>24450000000</v>
+      </c>
+      <c r="I12" s="61">
+        <v>25852000000</v>
+      </c>
+      <c r="J12" s="62">
+        <v>25127000000</v>
+      </c>
+      <c r="K12" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="96" t="s">
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="97">
+      <c r="O12" s="108">
         <f>O8*(1-O11)</f>
         <v>3.8924830652801515E-2</v>
       </c>
-      <c r="P12" s="48"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92">
+      <c r="A13" s="64"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>8.6637298091042592E-2</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="48">
         <f t="shared" si="1"/>
         <v>1.2756756756756755</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="48">
         <f t="shared" si="1"/>
         <v>0.70650237529691218</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="49">
         <f t="shared" si="1"/>
         <v>0.59538929969551968</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="48">
         <f t="shared" si="1"/>
-        <v>8.6373302797317253E-2</v>
-      </c>
-      <c r="H13" s="92">
+        <v>0.26942581383935882</v>
+      </c>
+      <c r="H13" s="48">
         <f t="shared" si="1"/>
-        <v>7.6896049791697951E-2</v>
-      </c>
-      <c r="I13" s="92">
+        <v>5.025773195876293E-2</v>
+      </c>
+      <c r="I13" s="48">
         <f t="shared" si="1"/>
-        <v>-2.0041948263808007E-2</v>
-      </c>
-      <c r="J13" s="92">
+        <v>5.7341513292433532E-2</v>
+      </c>
+      <c r="J13" s="65">
         <f t="shared" si="1"/>
-        <v>5.783590963139118E-2</v>
-      </c>
-      <c r="K13" s="94">
+        <v>-2.8044251895404604E-2</v>
+      </c>
+      <c r="K13" s="65">
         <f>SUM(F13:J13)/5</f>
-        <v>0.1592905227304236</v>
-      </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="121" t="s">
+        <v>0.18887402137813408</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="48"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="51">
+        <f>B12/B10</f>
+        <v>0.12054697526220294</v>
+      </c>
+      <c r="C14" s="51">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.12391158740790355</v>
+      </c>
+      <c r="D14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.24539162112932605</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.34620365629611782</v>
+      </c>
+      <c r="F14" s="52">
+        <f t="shared" si="2"/>
+        <v>0.51233412487777619</v>
+      </c>
+      <c r="G14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.44626768393206301</v>
+      </c>
+      <c r="H14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.4285338708263956</v>
+      </c>
+      <c r="I14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.43502843873052199</v>
+      </c>
+      <c r="J14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.40527419354838712</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="108">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="42"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B15" s="61">
         <v>9265000000</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C15" s="61">
         <v>11598000000</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D15" s="61">
         <v>15197919438</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E15" s="61">
         <v>17917823950</v>
       </c>
-      <c r="F14" s="89">
-        <v>19130000000</v>
-      </c>
-      <c r="G14" s="88">
-        <v>20706000000</v>
-      </c>
-      <c r="H14" s="88">
-        <v>22205000000</v>
-      </c>
-      <c r="I14" s="88">
-        <v>22939000000</v>
-      </c>
-      <c r="J14" s="88">
-        <v>26276000000</v>
-      </c>
-      <c r="K14" s="90" t="s">
+      <c r="F15" s="66">
+        <v>19190000000</v>
+      </c>
+      <c r="G15" s="61">
+        <v>24964000000</v>
+      </c>
+      <c r="H15" s="61">
+        <v>28494000000</v>
+      </c>
+      <c r="I15" s="61">
+        <v>30910000000</v>
+      </c>
+      <c r="J15" s="62">
+        <v>31500000000</v>
+      </c>
+      <c r="K15" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="95">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="109" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.2146999999999999</v>
+      </c>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.25180787911494873</v>
       </c>
-      <c r="D15" s="92">
-        <f t="shared" si="2"/>
+      <c r="D16" s="48">
+        <f t="shared" si="3"/>
         <v>0.3103913983445421</v>
       </c>
-      <c r="E15" s="92">
-        <f t="shared" si="2"/>
+      <c r="E16" s="48">
+        <f t="shared" si="3"/>
         <v>0.17896558295994835</v>
       </c>
-      <c r="F15" s="93">
-        <f t="shared" si="2"/>
-        <v>6.7651967860751228E-2</v>
-      </c>
-      <c r="G15" s="92">
-        <f t="shared" si="2"/>
-        <v>8.2383690538421428E-2</v>
-      </c>
-      <c r="H15" s="92">
-        <f t="shared" si="2"/>
-        <v>7.2394475031391847E-2</v>
-      </c>
-      <c r="I15" s="92">
-        <f t="shared" si="2"/>
-        <v>3.3055618104030682E-2</v>
-      </c>
-      <c r="J15" s="92">
-        <f t="shared" si="2"/>
-        <v>0.14547277562230265</v>
-      </c>
-      <c r="K15" s="94">
-        <f>SUM(F15:J15)/5</f>
-        <v>8.0191705431379573E-2</v>
-      </c>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="99" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1241000000000001</v>
-      </c>
-      <c r="P15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="F16" s="49">
+        <f t="shared" si="3"/>
+        <v>7.1000588774062567E-2</v>
+      </c>
+      <c r="G16" s="48">
+        <f t="shared" si="3"/>
+        <v>0.30088587806149025</v>
+      </c>
+      <c r="H16" s="48">
+        <f t="shared" si="3"/>
+        <v>0.14140362121454886</v>
+      </c>
+      <c r="I16" s="48">
+        <f t="shared" si="3"/>
+        <v>8.4789780304625584E-2</v>
+      </c>
+      <c r="J16" s="65">
+        <f t="shared" si="3"/>
+        <v>1.9087673891944323E-2</v>
+      </c>
+      <c r="K16" s="65">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.12343350844933432</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="108">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="42"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="51">
+        <f>B15/B10</f>
+        <v>0.41001017834225784</v>
+      </c>
+      <c r="C17" s="51">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.48551574012056264</v>
+      </c>
+      <c r="D17" s="51">
+        <f t="shared" si="4"/>
+        <v>0.55365826732240442</v>
+      </c>
+      <c r="E17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.53964472939192243</v>
+      </c>
+      <c r="F17" s="51">
+        <f t="shared" si="4"/>
+        <v>0.53610839502723839</v>
+      </c>
+      <c r="G17" s="51">
+        <f t="shared" si="4"/>
+        <v>0.47854924663573978</v>
+      </c>
+      <c r="H17" s="51">
+        <f t="shared" si="4"/>
+        <v>0.49941284725265095</v>
+      </c>
+      <c r="I17" s="51">
+        <f t="shared" si="4"/>
+        <v>0.52014269848214589</v>
+      </c>
+      <c r="J17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.50806451612903225</v>
+      </c>
+      <c r="K17" s="53"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="110" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="111">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.2864962999999995E-2</v>
+      </c>
+      <c r="P17" s="42"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="100">
+      <c r="B18" s="70">
         <v>5.4268799335272122E-2</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C18" s="70">
         <v>4.8627680371904007E-2</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D18" s="70">
         <v>0.10043804755944931</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E18" s="70">
         <v>0.17214418873746465</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="95">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="48"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="105" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="106">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.8751789000000011E-2</v>
-      </c>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="121" t="s">
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="122"/>
-      <c r="P18" s="48"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="111" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Semiconductors &amp; Semiconductor Equipment</v>
-      </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="118" cm="1">
-        <f t="array" ref="D19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2018</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="65" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="112">
         <f>O6+O7</f>
         <v>39341000000</v>
       </c>
-      <c r="P19" s="48"/>
+      <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
-        <v>Broadcom Inc. is a global technology company that designs, develops and supplies a range of semiconductor and infrastructure software solutions. The Company’s segments include semiconductor solutions and infrastructure software. The semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. It provides semiconductor solutions for managing the movement of data in data center, service provider, enterprise and embedded networking applications. It provides a variety of radio frequency semiconductor devices, wireless connectivity solutions, custom touch controllers, and inductive charging solutions for mobile applications. It provides a portfolio of software solutions that enables customers to plan, develop, automate, manage, and secure applications across various platforms.</v>
-      </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="65" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="107" cm="1">
+      <c r="O20" s="112" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>376055696115</v>
-      </c>
-      <c r="P20" s="48"/>
+        <v>383844000000</v>
+      </c>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="65" t="s">
+      <c r="A21" s="121" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Semiconductors &amp; Semiconductor Equipment</v>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2018</v>
+      </c>
+      <c r="E21" s="122"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="107">
+      <c r="O21" s="112">
         <f>O19+O20</f>
-        <v>415396696115</v>
-      </c>
-      <c r="P21" s="48"/>
+        <v>423185000000</v>
+      </c>
+      <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="79" t="s">
+      <c r="A22" s="121" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
+        <v>Broadcom Inc. is a global technology company that designs, develops, and supplies a range of semiconductor, enterprise software and security solutions. Its segments include semiconductor solutions and infrastructure software. The semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. It provides a variety of radio frequency semiconductor devices, custom touch controllers, and inductive charging solutions for mobile applications. The Company’s solutions include service provider and enterprise networking and storage, mobile device and broadband connectivity, mainframe, cybersecurity, and private and hybrid cloud infrastructure. Its product portfolio serves markets, such as cloud, data center, networking, broadband, wireless, storage, industrial, and enterprise software.</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>9.4707060426664269E-2</v>
-      </c>
-      <c r="P22" s="48"/>
+        <v>9.2964070087550366E-2</v>
+      </c>
+      <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="105" t="s">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.90529293957333568</v>
-      </c>
-      <c r="P23" s="48"/>
+        <v>0.90703592991244963</v>
+      </c>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="112" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="113"/>
-      <c r="P24" s="48"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="114">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4032824244934995E-2</v>
-      </c>
-      <c r="O25" s="115"/>
-      <c r="P25" s="48"/>
+        <v>8.7850468755943295E-2</v>
+      </c>
+      <c r="O25" s="118"/>
+      <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="86"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="86"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="86"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="86"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="86"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
-      <c r="N58" s="86"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="86"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
-      <c r="P59" s="86"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="86"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
-      <c r="P60" s="86"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="86"/>
-      <c r="O61" s="86"/>
-      <c r="P61" s="86"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="48"/>
-      <c r="P71" s="48"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="48"/>
-      <c r="P76" s="48"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="48"/>
-      <c r="P77" s="48"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="48"/>
-      <c r="P79" s="48"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="48"/>
-      <c r="P81" s="48"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="48"/>
-      <c r="P83" s="48"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="48"/>
-      <c r="P84" s="48"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="48"/>
-      <c r="P85" s="48"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="48"/>
-      <c r="P87" s="48"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="48"/>
-      <c r="P91" s="48"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="48"/>
-      <c r="P92" s="48"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="48"/>
-      <c r="P94" s="48"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="48"/>
-      <c r="P95" s="48"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="48"/>
-      <c r="P97" s="48"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="48"/>
-      <c r="P100" s="48"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="48"/>
-      <c r="P101" s="48"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="48"/>
-      <c r="P102" s="48"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="48"/>
-      <c r="P103" s="48"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="48"/>
-      <c r="P104" s="48"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="48"/>
-      <c r="P105" s="48"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="48"/>
-      <c r="P106" s="48"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="48"/>
-      <c r="P107" s="48"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="48"/>
-      <c r="P108" s="48"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:AVGO/explorer/revenue_proj" xr:uid="{585B69C0-7E8F-DE41-B16A-378313FD3336}"/>

--- a/Technology/Hardware/Broadcom.xlsx
+++ b/Technology/Hardware/Broadcom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799ECBC-A281-154F-8439-18C5D62B681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D766DB89-D2A3-5F4D-9D3C-E6A8484F38C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1388,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1706,10 +1706,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,6 +1723,9 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1759,6 +1762,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1778,7 +1783,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1791,6 +1796,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1917,38 +1924,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>999.87</v>
-    <v>516.04999999999995</v>
-    <v>1.2146999999999999</v>
-    <v>4.2699999999999996</v>
-    <v>4.6129999999999999E-3</v>
-    <v>0.8</v>
-    <v>8.6019999999999998E-4</v>
+    <v>520.38480000000004</v>
+    <v>1.2151000000000001</v>
+    <v>22.04</v>
+    <v>2.3898000000000003E-2</v>
+    <v>1.2</v>
+    <v>1.271E-3</v>
     <v>USD</v>
     <v>Broadcom Inc. is a global technology company that designs, develops, and supplies a range of semiconductor, enterprise software and security solutions. Its segments include semiconductor solutions and infrastructure software. The semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. It provides a variety of radio frequency semiconductor devices, custom touch controllers, and inductive charging solutions for mobile applications. The Company’s solutions include service provider and enterprise networking and storage, mobile device and broadband connectivity, mainframe, cybersecurity, and private and hybrid cloud infrastructure. Its product portfolio serves markets, such as cloud, data center, networking, broadband, wireless, storage, industrial, and enterprise software.</v>
     <v>20000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>1320 Ridder Park Drive, SAN JOSE, CA, 95131 US</v>
-    <v>933.9</v>
+    <v>3421 Hillview Avenue, PALO ALTO, CA, 94304 US</v>
+    <v>950.73</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45262.040057418752</v>
+    <v>45269.041255601565</v>
     <v>0</v>
-    <v>908</v>
-    <v>383844000000</v>
+    <v>910.52620000000002</v>
+    <v>389746132650</v>
     <v>Broadcom Inc.</v>
     <v>Broadcom Inc.</v>
-    <v>922.46</v>
-    <v>28.289000000000001</v>
-    <v>925.73</v>
-    <v>930</v>
-    <v>930.8</v>
+    <v>927.84</v>
+    <v>28.183</v>
+    <v>922.26</v>
+    <v>944.3</v>
+    <v>945.5</v>
     <v>412735500</v>
     <v>AVGO</v>
     <v>Broadcom Inc. (XNAS:AVGO)</v>
-    <v>2961244</v>
-    <v>2751083</v>
+    <v>6966842</v>
+    <v>2989258</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2560,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A108" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
@@ -15879,7 +15886,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15928,7 +15935,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>383844000000</v>
+        <v>389746132650</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>201</v>
@@ -15942,7 +15949,7 @@
       </c>
       <c r="E3" s="76">
         <f>SUM(C11:E11)/3</f>
-        <v>0.13860835307109656</v>
+        <v>0.14583725355457319</v>
       </c>
       <c r="F3" s="77" t="s">
         <v>203</v>
@@ -15956,14 +15963,14 @@
       </c>
       <c r="I3" s="79">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>513719318870.58215</v>
+        <v>526867156446.10394</v>
       </c>
       <c r="J3" s="80" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="81">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.9599107970946529E-2</v>
+        <v>1.9302308271409604E-2</v>
       </c>
       <c r="L3" s="82" t="s">
         <v>250</v>
@@ -15992,7 +15999,7 @@
       </c>
       <c r="E4" s="44">
         <f>SUM(C13:E13)/3</f>
-        <v>0.68960511635454347</v>
+        <v>0.73574414081281425</v>
       </c>
       <c r="F4" s="85" t="s">
         <v>209</v>
@@ -16006,14 +16013,14 @@
       </c>
       <c r="I4" s="43">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>440809339632.45782</v>
+        <v>450040488088.08624</v>
       </c>
       <c r="J4" s="85" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="87" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.6129999999999999E-3</v>
+        <v>2.3898000000000003E-2</v>
       </c>
       <c r="L4" s="88" t="s">
         <v>212</v>
@@ -16042,7 +16049,7 @@
       </c>
       <c r="E5" s="44">
         <f>SUM(C16:E16)/3</f>
-        <v>0.2470549534731464</v>
+        <v>0.13715951820537264</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>216</v>
@@ -16056,14 +16063,14 @@
       </c>
       <c r="I5" s="43">
         <f>I4+G5-G6</f>
-        <v>413523339632.45782</v>
+        <v>422754488088.08624</v>
       </c>
       <c r="J5" s="85" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="90" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>930</v>
+        <v>944.3</v>
       </c>
       <c r="L5" s="91" t="s">
         <v>219</v>
@@ -16081,7 +16088,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92">
         <f>O20/F10</f>
-        <v>10.723397122503142</v>
+        <v>10.886763481843575</v>
       </c>
       <c r="B6" s="84" t="s">
         <v>221</v>
@@ -16109,14 +16116,14 @@
       </c>
       <c r="I6" s="87">
         <f>N25</f>
-        <v>8.7850468755943295E-2</v>
+        <v>8.8227513031375882E-2</v>
       </c>
       <c r="J6" s="85" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="45">
         <f>I5/G4</f>
-        <v>971.60470018639148</v>
+        <v>993.29398920107849</v>
       </c>
       <c r="L6" s="93" t="s">
         <v>225</v>
@@ -16134,14 +16141,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="94">
         <f>O20/F12</f>
-        <v>20.93047603468019</v>
+        <v>21.25231106657942</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="96">
         <f>F15/A3</f>
-        <v>4.9994268504913453E-2</v>
+        <v>4.9719544022780185E-2</v>
       </c>
       <c r="D7" s="95" t="s">
         <v>228</v>
@@ -16168,7 +16175,7 @@
       </c>
       <c r="K7" s="102">
         <f>K6/K5-1</f>
-        <v>4.4736236759560732E-2</v>
+        <v>5.1883923754186823E-2</v>
       </c>
       <c r="L7" s="103" t="s">
         <v>231</v>
@@ -16209,31 +16216,31 @@
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="55">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C9" s="55">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="55">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E9" s="56">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F9" s="57">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G9" s="58">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H9" s="58">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I9" s="58">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="J9" s="59">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
@@ -16252,22 +16259,22 @@
         <v>234</v>
       </c>
       <c r="B10" s="61">
-        <v>22597000000</v>
+        <v>23888000000</v>
       </c>
       <c r="C10" s="61">
-        <v>23888000000</v>
-      </c>
-      <c r="D10" s="61">
         <v>27450000000</v>
       </c>
+      <c r="D10" s="62">
+        <v>33203000000</v>
+      </c>
       <c r="E10" s="62">
-        <v>33203000000</v>
+        <v>35820000000</v>
       </c>
       <c r="F10" s="61">
-        <v>35795000000</v>
+        <v>35800000000</v>
       </c>
       <c r="G10" s="61">
-        <v>52166000000</v>
+        <v>50000000000</v>
       </c>
       <c r="H10" s="61">
         <v>57055000000</v>
@@ -16296,27 +16303,27 @@
       <c r="B11" s="48"/>
       <c r="C11" s="48">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
-        <v>5.7131477629773775E-2</v>
+        <v>0.14911252511721362</v>
       </c>
       <c r="D11" s="48">
         <f t="shared" si="0"/>
-        <v>0.14911252511721362</v>
+        <v>0.20958105646630232</v>
       </c>
       <c r="E11" s="48">
         <f t="shared" si="0"/>
-        <v>0.20958105646630232</v>
+        <v>7.881817908020361E-2</v>
       </c>
       <c r="F11" s="49">
         <f t="shared" si="0"/>
-        <v>7.806523506912022E-2</v>
+        <v>-5.5834729201564848E-4</v>
       </c>
       <c r="G11" s="48">
         <f t="shared" si="0"/>
-        <v>0.45735437910322663</v>
+        <v>0.3966480446927374</v>
       </c>
       <c r="H11" s="48">
         <f t="shared" si="0"/>
-        <v>9.3720047540543749E-2</v>
+        <v>0.1411</v>
       </c>
       <c r="I11" s="48">
         <f t="shared" si="0"/>
@@ -16328,7 +16335,7 @@
       </c>
       <c r="K11" s="65">
         <f>SUM(F11:J11)/5</f>
-        <v>0.14280208576934195</v>
+        <v>0.12441209290690818</v>
       </c>
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
@@ -16346,31 +16353,31 @@
         <v>142</v>
       </c>
       <c r="B12" s="61">
-        <v>2724000000</v>
+        <v>2960000000</v>
       </c>
       <c r="C12" s="61">
-        <v>2960000000</v>
+        <v>6736000000</v>
       </c>
       <c r="D12" s="61">
-        <v>6736000000</v>
+        <v>11495000000</v>
       </c>
       <c r="E12" s="61">
-        <v>11495000000</v>
+        <v>14082000000</v>
       </c>
       <c r="F12" s="66">
         <v>18339000000</v>
       </c>
       <c r="G12" s="61">
-        <v>23280000000</v>
+        <v>23289000000</v>
       </c>
       <c r="H12" s="61">
-        <v>24450000000</v>
+        <v>25550000000</v>
       </c>
       <c r="I12" s="61">
-        <v>25852000000</v>
+        <v>26911000000</v>
       </c>
       <c r="J12" s="62">
-        <v>25127000000</v>
+        <v>28500000000</v>
       </c>
       <c r="K12" s="67" t="s">
         <v>238</v>
@@ -16391,39 +16398,39 @@
       <c r="B13" s="48"/>
       <c r="C13" s="48">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
-        <v>8.6637298091042592E-2</v>
+        <v>1.2756756756756755</v>
       </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>1.2756756756756755</v>
+        <v>0.70650237529691218</v>
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>0.70650237529691218</v>
+        <v>0.22505437146585483</v>
       </c>
       <c r="F13" s="49">
         <f t="shared" si="1"/>
-        <v>0.59538929969551968</v>
+        <v>0.30230080954409888</v>
       </c>
       <c r="G13" s="48">
         <f t="shared" si="1"/>
-        <v>0.26942581383935882</v>
+        <v>0.26991657124161628</v>
       </c>
       <c r="H13" s="48">
         <f t="shared" si="1"/>
-        <v>5.025773195876293E-2</v>
+        <v>9.7084460474902379E-2</v>
       </c>
       <c r="I13" s="48">
         <f t="shared" si="1"/>
-        <v>5.7341513292433532E-2</v>
+        <v>5.3268101761252407E-2</v>
       </c>
       <c r="J13" s="65">
         <f t="shared" si="1"/>
-        <v>-2.8044251895404604E-2</v>
+        <v>5.9046486566831424E-2</v>
       </c>
       <c r="K13" s="65">
         <f>SUM(F13:J13)/5</f>
-        <v>0.18887402137813408</v>
+        <v>0.15632328591774028</v>
       </c>
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
@@ -16439,39 +16446,39 @@
       </c>
       <c r="B14" s="51">
         <f>B12/B10</f>
-        <v>0.12054697526220294</v>
+        <v>0.12391158740790355</v>
       </c>
       <c r="C14" s="51">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
-        <v>0.12391158740790355</v>
+        <v>0.24539162112932605</v>
       </c>
       <c r="D14" s="51">
         <f t="shared" si="2"/>
-        <v>0.24539162112932605</v>
+        <v>0.34620365629611782</v>
       </c>
       <c r="E14" s="51">
         <f t="shared" si="2"/>
-        <v>0.34620365629611782</v>
+        <v>0.39313232830820771</v>
       </c>
       <c r="F14" s="52">
         <f t="shared" si="2"/>
-        <v>0.51233412487777619</v>
+        <v>0.51226256983240226</v>
       </c>
       <c r="G14" s="51">
         <f t="shared" si="2"/>
-        <v>0.44626768393206301</v>
+        <v>0.46578000000000003</v>
       </c>
       <c r="H14" s="51">
         <f t="shared" si="2"/>
-        <v>0.4285338708263956</v>
+        <v>0.44781351327666286</v>
       </c>
       <c r="I14" s="51">
         <f t="shared" si="2"/>
-        <v>0.43502843873052199</v>
+        <v>0.45284892134755833</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="2"/>
-        <v>0.40527419354838712</v>
+        <v>0.45967741935483869</v>
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="47"/>
@@ -16481,7 +16488,7 @@
       </c>
       <c r="O14" s="108">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="42"/>
     </row>
@@ -16490,31 +16497,31 @@
         <v>185</v>
       </c>
       <c r="B15" s="61">
-        <v>9265000000</v>
+        <v>10765000000</v>
       </c>
       <c r="C15" s="61">
-        <v>11598000000</v>
+        <v>12109000000</v>
       </c>
       <c r="D15" s="61">
-        <v>15197919438</v>
+        <v>13384000000</v>
       </c>
       <c r="E15" s="61">
-        <v>17917823950</v>
+        <v>15811000000</v>
       </c>
       <c r="F15" s="66">
-        <v>19190000000</v>
+        <v>19378000000</v>
       </c>
       <c r="G15" s="61">
-        <v>24964000000</v>
+        <v>25500000000</v>
       </c>
       <c r="H15" s="61">
-        <v>28494000000</v>
+        <v>28530000000</v>
       </c>
       <c r="I15" s="61">
-        <v>30910000000</v>
+        <v>30912000000</v>
       </c>
       <c r="J15" s="62">
-        <v>31500000000</v>
+        <v>32500000000</v>
       </c>
       <c r="K15" s="67" t="s">
         <v>241</v>
@@ -16526,7 +16533,7 @@
       </c>
       <c r="O15" s="109" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.2146999999999999</v>
+        <v>1.2151000000000001</v>
       </c>
       <c r="P15" s="42"/>
     </row>
@@ -16535,39 +16542,39 @@
       <c r="B16" s="48"/>
       <c r="C16" s="48">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
-        <v>0.25180787911494873</v>
+        <v>0.12484904784022288</v>
       </c>
       <c r="D16" s="48">
         <f t="shared" si="3"/>
-        <v>0.3103913983445421</v>
+        <v>0.10529358328515981</v>
       </c>
       <c r="E16" s="48">
         <f t="shared" si="3"/>
-        <v>0.17896558295994835</v>
+        <v>0.18133592349073524</v>
       </c>
       <c r="F16" s="49">
         <f t="shared" si="3"/>
-        <v>7.1000588774062567E-2</v>
+        <v>0.22560242868888758</v>
       </c>
       <c r="G16" s="48">
         <f t="shared" si="3"/>
-        <v>0.30088587806149025</v>
+        <v>0.3159252760862834</v>
       </c>
       <c r="H16" s="48">
         <f t="shared" si="3"/>
-        <v>0.14140362121454886</v>
+        <v>0.11882352941176477</v>
       </c>
       <c r="I16" s="48">
         <f t="shared" si="3"/>
-        <v>8.4789780304625584E-2</v>
+        <v>8.3491062039958042E-2</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="3"/>
-        <v>1.9087673891944323E-2</v>
+        <v>5.1371635610766075E-2</v>
       </c>
       <c r="K16" s="65">
         <f>SUM(F16:J16)/5</f>
-        <v>0.12343350844933432</v>
+        <v>0.15904278636753197</v>
       </c>
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
@@ -16585,39 +16592,39 @@
       </c>
       <c r="B17" s="51">
         <f>B15/B10</f>
-        <v>0.41001017834225784</v>
+        <v>0.45064467515070328</v>
       </c>
       <c r="C17" s="51">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
-        <v>0.48551574012056264</v>
+        <v>0.44112932604735883</v>
       </c>
       <c r="D17" s="51">
         <f t="shared" si="4"/>
-        <v>0.55365826732240442</v>
+        <v>0.40309610577357469</v>
       </c>
       <c r="E17" s="53">
         <f t="shared" si="4"/>
-        <v>0.53964472939192243</v>
+        <v>0.44140145170295925</v>
       </c>
       <c r="F17" s="51">
         <f t="shared" si="4"/>
-        <v>0.53610839502723839</v>
+        <v>0.54128491620111729</v>
       </c>
       <c r="G17" s="51">
         <f t="shared" si="4"/>
-        <v>0.47854924663573978</v>
+        <v>0.51</v>
       </c>
       <c r="H17" s="51">
         <f t="shared" si="4"/>
-        <v>0.49941284725265095</v>
+        <v>0.50004381736920511</v>
       </c>
       <c r="I17" s="51">
         <f t="shared" si="4"/>
-        <v>0.52014269848214589</v>
+        <v>0.52017635378453875</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="4"/>
-        <v>0.50806451612903225</v>
+        <v>0.52419354838709675</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="47"/>
@@ -16627,7 +16634,7 @@
       </c>
       <c r="O17" s="111">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.2864962999999995E-2</v>
+        <v>9.3204129000000011E-2</v>
       </c>
       <c r="P17" s="42"/>
     </row>
@@ -16636,16 +16643,16 @@
         <v>196</v>
       </c>
       <c r="B18" s="70">
-        <v>5.4268799335272122E-2</v>
+        <v>4.8627680371904007E-2</v>
       </c>
       <c r="C18" s="70">
-        <v>4.8627680371904007E-2</v>
+        <v>0.10043804755944931</v>
       </c>
       <c r="D18" s="70">
-        <v>0.10043804755944931</v>
+        <v>0.17214418873746465</v>
       </c>
       <c r="E18" s="70">
-        <v>0.17214418873746465</v>
+        <v>0.19780608922175189</v>
       </c>
       <c r="F18" s="71"/>
       <c r="G18" s="70"/>
@@ -16703,7 +16710,7 @@
       </c>
       <c r="O20" s="112" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>383844000000</v>
+        <v>389746132650</v>
       </c>
       <c r="P20" s="42"/>
     </row>
@@ -16731,19 +16738,19 @@
       </c>
       <c r="O21" s="112">
         <f>O19+O20</f>
-        <v>423185000000</v>
+        <v>429087132650</v>
       </c>
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="str" cm="1">
+      <c r="A22" s="127" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Broadcom Inc. is a global technology company that designs, develops, and supplies a range of semiconductor, enterprise software and security solutions. Its segments include semiconductor solutions and infrastructure software. The semiconductor solutions segment includes all of its product lines and intellectual property (IP) licensing. Its infrastructure software segment includes its mainframe, distributed and cyber security solutions, and its fiber channel storage area networking (FC SAN) business. It provides a variety of radio frequency semiconductor devices, custom touch controllers, and inductive charging solutions for mobile applications. The Company’s solutions include service provider and enterprise networking and storage, mobile device and broadband connectivity, mainframe, cybersecurity, and private and hybrid cloud infrastructure. Its product portfolio serves markets, such as cloud, data center, networking, broadband, wireless, storage, industrial, and enterprise software.</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
@@ -16757,16 +16764,16 @@
       </c>
       <c r="O22" s="113">
         <f>(O19/O21)</f>
-        <v>9.2964070087550366E-2</v>
+        <v>9.1685340823514899E-2</v>
       </c>
       <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
@@ -16780,16 +16787,16 @@
       </c>
       <c r="O23" s="114">
         <f>O20/O21</f>
-        <v>0.90703592991244963</v>
+        <v>0.90831465917648513</v>
       </c>
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
@@ -16805,11 +16812,11 @@
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
@@ -16820,17 +16827,17 @@
       <c r="M25" s="47"/>
       <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.7850468755943295E-2</v>
+        <v>8.8227513031375882E-2</v>
       </c>
       <c r="O25" s="118"/>
       <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
@@ -16844,11 +16851,11 @@
       <c r="P26" s="42"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
@@ -16862,11 +16869,11 @@
       <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -16880,11 +16887,11 @@
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
@@ -16898,11 +16905,11 @@
       <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
